--- a/net_test.xlsx
+++ b/net_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Koach\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Koach\Desktop\Office_guidace_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F97F2F-962C-4333-971D-24845FAD7B96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E89770-302A-4A49-BB23-0CBED504BA86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E49105B-9EA9-42A3-833F-81063782D993}"/>
+    <workbookView xWindow="13575" yWindow="1080" windowWidth="11385" windowHeight="13245" xr2:uid="{5E49105B-9EA9-42A3-833F-81063782D993}"/>
   </bookViews>
   <sheets>
     <sheet name="staff_host" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/net_test.xlsx
+++ b/net_test.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Koach\Desktop\Office_guidace_System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\柯奇\py\office_guidance_sys\Office_Guidance_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E89770-302A-4A49-BB23-0CBED504BA86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13575" yWindow="1080" windowWidth="11385" windowHeight="13245" xr2:uid="{5E49105B-9EA9-42A3-833F-81063782D993}"/>
+    <workbookView xWindow="13575" yWindow="1080" windowWidth="11385" windowHeight="13245"/>
   </bookViews>
   <sheets>
     <sheet name="staff_host" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>localhost 6666</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,11 +45,15 @@
     <t>host</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>192.168.115.253 6666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -407,11 +410,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A458D33-0589-4F4E-BE24-62C3C4C6D8D6}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -429,43 +432,116 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>22222</v>
+        <v>12811</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>33333</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+        <v>12812</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>44444</v>
+        <v>12812</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>55555</v>
+        <v>12812</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>66666</v>
+        <v>12813</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>77777</v>
+        <v>12813</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>88888</v>
+        <v>12813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12818</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12818</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>12815</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22222</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
